--- a/uploads/Classeur1.xlsx
+++ b/uploads/Classeur1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rahmani\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53228958-DE7D-4741-907A-4379B9973036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4018A2-7550-42FA-AFA7-1F901EC1A060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="9960" activeTab="2" xr2:uid="{7BFE8EDC-BB8B-4753-8080-14ACB4FEB41D}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="9960" activeTab="1" xr2:uid="{7BFE8EDC-BB8B-4753-8080-14ACB4FEB41D}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="14">
   <si>
     <t>ayman</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>mail youssef</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>tsest</t>
   </si>
 </sst>
 </file>
@@ -484,15 +490,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9713AB-6F8C-4A6C-9033-1D441B94838F}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -502,8 +508,11 @@
       <c r="C1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -513,8 +522,11 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -524,8 +536,11 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -534,6 +549,9 @@
       </c>
       <c r="C4" t="s">
         <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -543,15 +561,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D2E4BA5-D773-4B73-B9C1-CFA70989D666}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -561,8 +579,11 @@
       <c r="C1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -572,8 +593,11 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -583,8 +607,11 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -593,6 +620,9 @@
       </c>
       <c r="C4" t="s">
         <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
